--- a/prep_and_checklists/Nike Day 4  /PREPLIST_Nike Day 4  _08-14-2025_0.xlsx
+++ b/prep_and_checklists/Nike Day 4  /PREPLIST_Nike Day 4  _08-14-2025_0.xlsx
@@ -8,15 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Nike Day 4  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB88FD3-408C-284B-B7D0-21D40CED3EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C467AB6-EE28-0A4F-810F-3C7E4D738704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="1440" windowWidth="30240" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
     <sheet name="order_sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -627,10 +640,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -895,7 +911,7 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="93" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -930,5 +946,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>